--- a/tools/2025 Racehorse Deaths (Active & Retired).xlsx
+++ b/tools/2025 Racehorse Deaths (Active & Retired).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Racehorse-Memorial\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E68EF57-1B07-4333-982E-5BA1DC19FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5687B6-1DE3-4510-92D8-914AD2646534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6885,9 +6885,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8273,7 +8273,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8322,7 +8322,7 @@
       <c r="P27" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" s="4" t="s">
         <v>1068</v>
       </c>
     </row>

--- a/tools/2025 Racehorse Deaths (Active & Retired).xlsx
+++ b/tools/2025 Racehorse Deaths (Active & Retired).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Racehorse-Memorial\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5687B6-1DE3-4510-92D8-914AD2646534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB9619E-66A5-4587-BD1A-40ED09F50D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,10 +958,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9407万0000日圆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>13-4-1-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1018,9 +1014,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2012年新山纪念（G3）|2012年玫瑰锦标（G2）|2012年樱花赏（G1）|2012年优骏牝马（G1）|2012年秋华赏（G1）|2012·2013年日本杯 （G1|2014年迪拜司马经典赛（G1）|2014年有马纪念（G1）</t>
-  </si>
-  <si>
     <t>繁殖雌马退役4个月后，开始身体状况变差，后续症状恶化，无法站立</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2282,10 +2275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2012年达成日本赛马史上第4匹牝马三冠，并于2013年成功达成日本赛马史上首次日本杯连霸，被誉为日本2010年代最强雌马之一|与父大震撼共同达成日本赛马史上首例“父女三冠”，父女两代皆制霸日本杯，继鲁铎象征–东海帝王、特别周–迷人景致之后，成为史上第3组日本杯亲子制霸组合|在优骏牝马中以5马身优势夺冠，并以2分23秒6刷新本赛事纪录，将ローブデコルテ所保持的纪录缩短1.7秒；三冠达成后在日本杯击败包含牡马三冠马黄金巨匠及凯旋门大奖赛冠军Solemia在内的豪华阵容，以鼻差取胜，成为首匹在日本杯夺冠的牝马三冠马与三岁雌马，并获日本调教雌马当时史上最高的122分评价（该纪录于2018年被杏目以124分打破）|G1 7胜与父大震撼等并列日本赛马史上最多胜纪录之一，在雌马中仅次于伏特加，居一级赛胜场次数第2位|引退战有马纪念之前从未在中山竞马场出赛，这场有马纪念成为她生涯首次也是唯一一次在中山出赛的比赛，并在首次挑战中山的情况下即夺冠；牝马赢得有马纪念是自2008年大和赤骥以来、相隔6年的第5匹牝马优胜者，同时也是自1997年御用律师以来，首次出现“在出战有马纪念前从未于中山竞马场出赛却能赢得该赛”的赛驹|凭借在东京、中山、京都、阪神及迪拜5个赛场取得的G1/JpnI胜利，以及约17亿2603万400日元的总奖金，她在长距离G1胜场与生涯累积奖金两方面长期名列日本赛马史前列，总奖金排名日本赛马史第2，仅次于好歌剧|史上第二匹日本国内仅1胜却当上年度代表马的赛驹（首匹为绿草，仅计当年国内成绩，不含海外）|曾于2012年、2014年两度当选日本年度代表马，并获2012年JRA最优秀3岁雌马、2013及2014年JRA最优秀4岁以上雌马，2016年入选JRA显彰马</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2006年起在澳大利亚新南威尔士州斯康Arrowfield Stud服役种公马|2013～2014年赛季与父马利得精选分列澳洲种公马排行榜第1、第2位，史上首对同季包揽种公马榜冠亚军的父子组合|2016～2017年首次夺得澳洲冠军种公马头衔，实现丹山—利得精选—犀利时祖孙三代皆为澳洲冠军种公马，翌季在代表产驹Redzel制霸新设高奖金草地赛The Everest的助力下达成冠军种公马二连霸，其子嗣当季173匹合计赢出307场、收入约2920万澳元（约24亿1000万日圆），配种费一度高达17万6000澳元（约1500万日圆）|迄今已产出20余匹一级赛冠军及逾160匹级别赛优胜马，多匹子嗣在澳洲与海外接棒为主流种公马，成功延续丹山—Redoute's Choice—Snitzel速度父系|曾以穿梭种公马身份赴日配种，代表日本产驹为重赏3胜、现役种公马年轻力壮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3285,10 +3274,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>绰号“Super Silje”2014年瑞典冷血马德比夺冠，同场2140米自动发车创瑞典纪录：4岁外籍雌马1分23秒1|2015年在Solvalla竞马场举行的精英对抗赛夺冠，自动发车1分18秒8创瑞典纪录：外籍冷血雌马最快</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>瑞典</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6482,6 +6467,22 @@
       </rPr>
       <t>**殒命赛场**</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9407万日圆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012年达成日本赛马史上第4匹牝马三冠，并于2013年成功达成日本赛马史上首次日本杯连霸，被誉为日本2010年代最强雌马之一|与父大震撼共同达成日本赛马史上首例“父女三冠”，父女两代皆制霸日本杯，继鲁铎象征–东海帝王、特别周–迷人景致之后，成为史上第3组日本杯亲子制霸组合|在优骏牝马中以5马身优势夺冠，并以2分23秒6刷新本赛事纪录，将ローブデコルテ所保持的纪录缩短1.7秒；三冠达成后在日本杯击败包含牡马三冠马黄金巨匠及凯旋门大奖赛冠军Solemia在内的豪华阵容，以鼻差取胜，成为首匹在日本杯夺冠的牝马三冠马与三岁雌马，并获日本调教雌马当时史上最高的122分评价（该纪录于2018年被杏目以124分打破）|G1 7胜与父大震撼等并列日本赛马史上最多胜纪录之一，在雌马中仅次于伏特加，居一级赛胜场次数第2位|引退战有马纪念之前从未在中山竞马场出赛，这场有马纪念成为她生涯首次也是唯一一次在中山出赛的比赛，并在首次挑战中山的情况下即夺冠；牝马赢得有马纪念是自2008年大和赤骥以来、相隔6年的第5匹牝马优胜者，同时也是自1997年御用律师以来，首次出现“在出战有马纪念前从未于中山竞马场出赛却能赢得该赛”的赛驹|凭借在东京、中山、京都、阪神及迪拜5个赛场取得的G1/JpnI胜利，以及约17亿2603万400日元的总奖金，她在长距离G1胜场与生涯累积奖金两方面长期名列日本赛马史前列，总奖金排名日本赛马史第2，仅次于好歌剧|史上第2匹日本国内仅1胜却当上年度代表马的赛驹（首匹为绿草，仅计当年国内成绩，不含海外）|曾于2012年、2014年两度当选日本年度代表马，并获2012年JRA最优秀3岁雌马、2013及2014年JRA最优秀4岁以上雌马，2016年入选JRA显彰马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绰号“Super Silje”|2014年瑞典冷血马德比夺冠，同场2140米自动发车创瑞典纪录：4岁外籍雌马1分23秒1|2015年在Solvalla竞马场举行的精英对抗赛夺冠，自动发车1分18秒8创瑞典纪录：外籍冷血雌马最快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012年新山纪念（G3）|2012年玫瑰锦标（G2）|2012年樱花赏（G1）|2012年优骏牝马（G1）|2012年秋华赏（G1）|2012·2013年日本杯（G1)|2014年迪拜司马经典赛（G1）|2014年有马纪念（G1）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6885,9 +6886,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
+      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6945,7 +6946,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -6965,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>40</v>
@@ -6977,10 +6978,10 @@
         <v>45663</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>57</v>
@@ -6995,10 +6996,10 @@
         <v>29</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>41</v>
@@ -7042,16 +7043,16 @@
         <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>44</v>
@@ -7060,7 +7061,7 @@
         <v>45</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>46</v>
@@ -7071,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -7104,7 +7105,7 @@
         <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>48</v>
@@ -7116,7 +7117,7 @@
         <v>50</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -7124,7 +7125,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>83</v>
@@ -7136,7 +7137,7 @@
         <v>45669</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>68</v>
@@ -7145,31 +7146,31 @@
         <v>67</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -7177,7 +7178,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
@@ -7207,10 +7208,10 @@
         <v>21</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>74</v>
@@ -7227,7 +7228,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>82</v>
@@ -7239,10 +7240,10 @@
         <v>45690</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>76</v>
@@ -7257,10 +7258,10 @@
         <v>20</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>80</v>
@@ -7269,10 +7270,10 @@
         <v>81</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -7280,7 +7281,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>84</v>
@@ -7295,7 +7296,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>86</v>
@@ -7310,10 +7311,10 @@
         <v>29</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>89</v>
@@ -7322,10 +7323,10 @@
         <v>90</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -7333,7 +7334,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>82</v>
@@ -7345,7 +7346,7 @@
         <v>45712</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>91</v>
@@ -7363,10 +7364,10 @@
         <v>28</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>95</v>
@@ -7375,7 +7376,7 @@
         <v>96</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>97</v>
@@ -7386,7 +7387,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
@@ -7416,10 +7417,10 @@
         <v>11</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>102</v>
@@ -7428,10 +7429,10 @@
         <v>158</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -7439,7 +7440,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -7451,28 +7452,28 @@
         <v>45720</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>104</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>105</v>
@@ -7481,7 +7482,7 @@
         <v>106</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>109</v>
@@ -7492,7 +7493,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -7504,10 +7505,10 @@
         <v>45727</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>110</v>
@@ -7522,10 +7523,10 @@
         <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>113</v>
@@ -7534,7 +7535,7 @@
         <v>112</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>114</v>
@@ -7545,7 +7546,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>31</v>
@@ -7557,16 +7558,16 @@
         <v>45732</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>116</v>
@@ -7575,10 +7576,10 @@
         <v>25</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>117</v>
@@ -7587,10 +7588,10 @@
         <v>118</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -7598,7 +7599,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
@@ -7616,10 +7617,10 @@
         <v>64</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>120</v>
@@ -7628,10 +7629,10 @@
         <v>27</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>121</v>
@@ -7640,7 +7641,7 @@
         <v>122</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>123</v>
@@ -7651,7 +7652,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -7663,7 +7664,7 @@
         <v>45754</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>115</v>
@@ -7684,7 +7685,7 @@
         <v>193</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>127</v>
@@ -7696,7 +7697,7 @@
         <v>129</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -7704,7 +7705,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -7734,10 +7735,10 @@
         <v>30</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>134</v>
@@ -7746,10 +7747,10 @@
         <v>135</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -7757,7 +7758,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>31</v>
@@ -7787,10 +7788,10 @@
         <v>19</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>140</v>
@@ -7799,10 +7800,10 @@
         <v>141</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -7810,7 +7811,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
@@ -7840,10 +7841,10 @@
         <v>16</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>146</v>
@@ -7852,10 +7853,10 @@
         <v>147</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -7863,7 +7864,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>31</v>
@@ -7884,7 +7885,7 @@
         <v>149</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>150</v>
@@ -7896,7 +7897,7 @@
         <v>78</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>151</v>
@@ -7905,10 +7906,10 @@
         <v>157</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.3">
@@ -7916,7 +7917,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>152</v>
@@ -7928,7 +7929,7 @@
         <v>45819</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>68</v>
@@ -7937,7 +7938,7 @@
         <v>153</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>154</v>
@@ -7946,10 +7947,10 @@
         <v>23</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>155</v>
@@ -7958,10 +7959,10 @@
         <v>156</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -7969,7 +7970,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
@@ -7978,7 +7979,7 @@
         <v>42446</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>160</v>
@@ -7990,7 +7991,7 @@
         <v>159</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>161</v>
@@ -7999,10 +8000,10 @@
         <v>28</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>162</v>
@@ -8014,7 +8015,7 @@
         <v>164</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8022,7 +8023,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
@@ -8034,7 +8035,7 @@
         <v>45844</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>115</v>
@@ -8055,7 +8056,7 @@
         <v>193</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>168</v>
@@ -8067,7 +8068,7 @@
         <v>167</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8075,7 +8076,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -8096,7 +8097,7 @@
         <v>171</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>33</v>
@@ -8105,10 +8106,10 @@
         <v>24</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>172</v>
@@ -8117,7 +8118,7 @@
         <v>173</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8125,7 +8126,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -8137,10 +8138,10 @@
         <v>45852</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>174</v>
@@ -8158,7 +8159,7 @@
         <v>193</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>176</v>
@@ -8175,7 +8176,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
@@ -8187,10 +8188,10 @@
         <v>45858</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>179</v>
@@ -8208,7 +8209,7 @@
         <v>78</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>180</v>
@@ -8217,7 +8218,7 @@
         <v>181</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -8225,7 +8226,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>183</v>
@@ -8237,7 +8238,7 @@
         <v>45867</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>184</v>
@@ -8255,10 +8256,10 @@
         <v>28</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>188</v>
@@ -8267,10 +8268,10 @@
         <v>189</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -8278,7 +8279,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>82</v>
@@ -8290,10 +8291,10 @@
         <v>45877</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>190</v>
@@ -8308,10 +8309,10 @@
         <v>12</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>17</v>
@@ -8320,10 +8321,10 @@
         <v>18</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8331,7 +8332,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>31</v>
@@ -8343,16 +8344,16 @@
         <v>45908</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>192</v>
@@ -8364,7 +8365,7 @@
         <v>193</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>194</v>
@@ -8384,7 +8385,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
@@ -8396,13 +8397,13 @@
         <v>45909</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>198</v>
@@ -8414,10 +8415,10 @@
         <v>22</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>199</v>
@@ -8426,10 +8427,10 @@
         <v>216</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8437,7 +8438,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>31</v>
@@ -8449,16 +8450,16 @@
         <v>45915</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>200</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>79</v>
@@ -8467,10 +8468,10 @@
         <v>10</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>201</v>
@@ -8479,7 +8480,7 @@
         <v>202</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>203</v>
@@ -8490,7 +8491,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
@@ -8514,7 +8515,7 @@
         <v>206</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>25</v>
@@ -8523,7 +8524,7 @@
         <v>193</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>208</v>
@@ -8532,7 +8533,7 @@
         <v>209</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8540,7 +8541,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
@@ -8573,7 +8574,7 @@
         <v>193</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>214</v>
@@ -8582,7 +8583,7 @@
         <v>215</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>217</v>
@@ -8593,7 +8594,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>31</v>
@@ -8614,10 +8615,10 @@
         <v>220</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>35</v>
@@ -8626,16 +8627,16 @@
         <v>78</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>221</v>
+        <v>1094</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8643,7 +8644,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>31</v>
@@ -8661,13 +8662,13 @@
         <v>93</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>23</v>
@@ -8676,19 +8677,19 @@
         <v>78</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="P34" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8696,7 +8697,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>40</v>
@@ -8708,40 +8709,40 @@
         <v>45985</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="J35" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="P35" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.3">
@@ -8749,7 +8750,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>31</v>
@@ -8767,34 +8768,34 @@
         <v>93</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="P36" s="1" t="s">
-        <v>236</v>
+        <v>1097</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>561</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8802,7 +8803,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>31</v>
@@ -8820,34 +8821,34 @@
         <v>71</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8855,7 +8856,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>31</v>
@@ -8867,19 +8868,19 @@
         <v>45779</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="J38" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>20</v>
@@ -8888,16 +8889,16 @@
         <v>78</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8905,7 +8906,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>31</v>
@@ -8923,13 +8924,13 @@
         <v>93</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>36</v>
@@ -8938,16 +8939,16 @@
         <v>78</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -8955,7 +8956,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>31</v>
@@ -8967,19 +8968,19 @@
         <v>45839</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H40" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>21</v>
@@ -8988,16 +8989,16 @@
         <v>78</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9005,7 +9006,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>31</v>
@@ -9017,19 +9018,19 @@
         <v>45919</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>148</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>15</v>
@@ -9038,16 +9039,16 @@
         <v>78</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O41" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9055,7 +9056,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>31</v>
@@ -9067,40 +9068,40 @@
         <v>45985</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O42" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="Q42" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9108,7 +9109,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>152</v>
@@ -9120,40 +9121,40 @@
         <v>45659</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="I43" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>152</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N43" s="5" t="s">
+      <c r="P43" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="Q43" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -9161,10 +9162,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D44" s="3">
         <v>36297</v>
@@ -9179,13 +9180,13 @@
         <v>191</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>11</v>
@@ -9194,19 +9195,19 @@
         <v>78</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="Q44" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9214,7 +9215,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>31</v>
@@ -9226,40 +9227,40 @@
         <v>45822</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="J45" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="K45" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="O45" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P45" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9267,7 +9268,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>31</v>
@@ -9279,37 +9280,37 @@
         <v>45849</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="I46" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9317,10 +9318,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D47" s="3">
         <v>44600</v>
@@ -9329,40 +9330,40 @@
         <v>45898</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="H47" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="N47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="Q47" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.3">
@@ -9370,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>152</v>
@@ -9388,34 +9389,34 @@
         <v>191</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="O48" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="Q48" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9423,10 +9424,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="D49" s="3">
         <v>39482</v>
@@ -9435,40 +9436,40 @@
         <v>45923</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H49" s="3" t="s">
+      <c r="J49" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="O49" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="P49" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -9476,7 +9477,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>40</v>
@@ -9488,40 +9489,40 @@
         <v>45974</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="K50" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="L50" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q50" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9529,7 +9530,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>31</v>
@@ -9538,40 +9539,40 @@
         <v>38761</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>93</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P51" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9579,49 +9580,49 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D52" s="3">
         <v>44665</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>152</v>
       </c>
       <c r="J52" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9629,10 +9630,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D53" s="3">
         <v>43865</v>
@@ -9641,37 +9642,37 @@
         <v>45681</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="K53" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="J53" s="1" t="s">
+      <c r="L53" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N53" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9679,7 +9680,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>31</v>
@@ -9691,40 +9692,40 @@
         <v>45805</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9732,7 +9733,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>31</v>
@@ -9744,37 +9745,37 @@
         <v>45911</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>210</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P55" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9782,7 +9783,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>31</v>
@@ -9800,34 +9801,34 @@
         <v>71</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I56" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="P56" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9835,7 +9836,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>31</v>
@@ -9847,40 +9848,40 @@
         <v>45976</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="P57" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="P57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9888,7 +9889,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>31</v>
@@ -9900,34 +9901,34 @@
         <v>45997</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H58" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="L58" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N58" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9935,7 +9936,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>31</v>
@@ -9947,34 +9948,34 @@
         <v>45997</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="H59" s="3" t="s">
+      <c r="J59" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N59" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="O59" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>986</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -9982,7 +9983,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
@@ -9994,19 +9995,19 @@
         <v>45704</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>538</v>
-      </c>
       <c r="J60" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>21</v>
@@ -10015,16 +10016,16 @@
         <v>78</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10032,7 +10033,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>31</v>
@@ -10044,19 +10045,19 @@
         <v>45718</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>20</v>
@@ -10065,16 +10066,16 @@
         <v>78</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P61" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10082,7 +10083,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>31</v>
@@ -10100,13 +10101,13 @@
         <v>93</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>68</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>15</v>
@@ -10115,19 +10116,19 @@
         <v>78</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10135,7 +10136,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>31</v>
@@ -10147,19 +10148,19 @@
         <v>45747</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>191</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>205</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>51</v>
@@ -10168,16 +10169,16 @@
         <v>78</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10185,7 +10186,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>31</v>
@@ -10197,37 +10198,37 @@
         <v>45828</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10235,7 +10236,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>31</v>
@@ -10247,16 +10248,16 @@
         <v>45973</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>31</v>
@@ -10268,16 +10269,16 @@
         <v>78</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10285,31 +10286,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D66" s="3">
         <v>38419</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>145</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>15</v>
@@ -10318,19 +10319,19 @@
         <v>78</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -10338,10 +10339,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D67" s="3">
         <v>43745</v>
@@ -10350,40 +10351,40 @@
         <v>45752</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="H67" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10391,10 +10392,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D68" s="3">
         <v>33501</v>
@@ -10403,40 +10404,40 @@
         <v>45736</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H68" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N68" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="O68" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>958</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N68" s="1" t="s">
+      <c r="P68" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q68" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -10444,7 +10445,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>83</v>
@@ -10456,37 +10457,37 @@
         <v>45974</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="J69" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="P69" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -10494,10 +10495,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D70" s="3">
         <v>35567</v>
@@ -10506,19 +10507,19 @@
         <v>45691</v>
       </c>
       <c r="F70" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="J70" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>20</v>
@@ -10527,19 +10528,19 @@
         <v>78</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -10547,10 +10548,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D71" s="3">
         <v>36234</v>
@@ -10559,40 +10560,40 @@
         <v>45992</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>205</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -10600,10 +10601,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D72" s="3">
         <v>39031</v>
@@ -10612,40 +10613,40 @@
         <v>45950</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>145</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="O72" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q72" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="P72" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q72" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.3">
@@ -10653,10 +10654,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D73" s="3">
         <v>35905</v>
@@ -10665,40 +10666,40 @@
         <v>45918</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10706,7 +10707,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>40</v>
@@ -10718,19 +10719,19 @@
         <v>45866</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>205</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>11</v>
@@ -10739,19 +10740,19 @@
         <v>193</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="O74" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10759,7 +10760,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>40</v>
@@ -10771,40 +10772,40 @@
         <v>45824</v>
       </c>
       <c r="F75" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="J75" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N75" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -10812,7 +10813,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>40</v>
@@ -10824,19 +10825,19 @@
         <v>45679</v>
       </c>
       <c r="F76" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="J76" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>20</v>
@@ -10845,19 +10846,19 @@
         <v>78</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -10865,7 +10866,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>152</v>
@@ -10877,40 +10878,40 @@
         <v>45770</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="J77" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="N77" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="P77" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>697</v>
-      </c>
       <c r="Q77" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -10918,10 +10919,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D78" s="3">
         <v>38763</v>
@@ -10930,40 +10931,40 @@
         <v>45847</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>145</v>
       </c>
       <c r="H78" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>703</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="N78" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q78" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="P78" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -10971,10 +10972,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D79" s="3">
         <v>33731</v>
@@ -10983,16 +10984,16 @@
         <v>45757</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>712</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>78</v>
@@ -11004,16 +11005,16 @@
         <v>78</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11021,10 +11022,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D80" s="3">
         <v>35473</v>
@@ -11033,16 +11034,16 @@
         <v>45695</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>722</v>
-      </c>
       <c r="I80" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>78</v>
@@ -11054,16 +11055,16 @@
         <v>78</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -11071,10 +11072,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D81" s="3">
         <v>44577</v>
@@ -11083,40 +11084,40 @@
         <v>45704</v>
       </c>
       <c r="F81" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="J81" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N81" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="I81" s="3" t="s">
+      <c r="O81" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="P81" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="N81" s="1" t="s">
+      <c r="Q81" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -11124,10 +11125,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D82" s="3">
         <v>44468</v>
@@ -11136,34 +11137,34 @@
         <v>45704</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J82" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="O82" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11171,7 +11172,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>40</v>
@@ -11183,16 +11184,16 @@
         <v>45714</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>745</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>78</v>
@@ -11201,19 +11202,19 @@
         <v>15</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11221,7 +11222,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>40</v>
@@ -11230,43 +11231,43 @@
         <v>38761</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>205</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="N84" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q84" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -11274,10 +11275,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D85" s="3">
         <v>36188</v>
@@ -11286,40 +11287,40 @@
         <v>45805</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>205</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="N85" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q85" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="P85" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -11327,10 +11328,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D86" s="3">
         <v>35891</v>
@@ -11339,40 +11340,40 @@
         <v>45910</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="J86" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q86" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="P86" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11380,7 +11381,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>40</v>
@@ -11392,19 +11393,19 @@
         <v>45702</v>
       </c>
       <c r="F87" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="J87" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>25</v>
@@ -11413,19 +11414,19 @@
         <v>78</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N87" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q87" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -11433,10 +11434,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D88" s="3">
         <v>40352</v>
@@ -11445,40 +11446,40 @@
         <v>45933</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>796</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11486,10 +11487,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D89" s="3">
         <v>40984</v>
@@ -11498,40 +11499,40 @@
         <v>45815</v>
       </c>
       <c r="F89" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="L89" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N89" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="O89" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="P89" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q89" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11539,10 +11540,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D90" s="3">
         <v>39247</v>
@@ -11551,37 +11552,37 @@
         <v>45939</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11589,10 +11590,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D91" s="3">
         <v>39922</v>
@@ -11601,37 +11602,37 @@
         <v>45932</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="G91" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="O91" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="P91" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11640,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>31</v>
@@ -11651,34 +11652,34 @@
         <v>45899</v>
       </c>
       <c r="F92" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O92" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11686,7 +11687,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>31</v>
@@ -11698,37 +11699,37 @@
         <v>45836</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>170</v>
       </c>
       <c r="H93" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="P93" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11736,7 +11737,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>31</v>
@@ -11748,37 +11749,37 @@
         <v>45809</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11786,7 +11787,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>31</v>
@@ -11798,34 +11799,34 @@
         <v>45983</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="K95" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="O95" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11833,7 +11834,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>31</v>
@@ -11845,34 +11846,34 @@
         <v>45683</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="K96" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O96" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11880,7 +11881,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>31</v>
@@ -11892,34 +11893,34 @@
         <v>45962</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>148</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="K97" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O97" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11927,7 +11928,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>31</v>
@@ -11939,34 +11940,34 @@
         <v>45885</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>137</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>143</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -11974,7 +11975,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>31</v>
@@ -11986,37 +11987,37 @@
         <v>45725</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>148</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12024,7 +12025,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>31</v>
@@ -12036,37 +12037,37 @@
         <v>45725</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>119</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12074,7 +12075,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>31</v>
@@ -12086,34 +12087,34 @@
         <v>45725</v>
       </c>
       <c r="F101" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>879</v>
-      </c>
       <c r="K101" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12121,7 +12122,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>31</v>
@@ -12133,34 +12134,34 @@
         <v>45745</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>148</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12168,7 +12169,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>31</v>
@@ -12180,37 +12181,37 @@
         <v>45766</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12218,7 +12219,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>31</v>
@@ -12230,34 +12231,34 @@
         <v>45843</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12265,7 +12266,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>31</v>
@@ -12277,34 +12278,34 @@
         <v>45787</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>137</v>
       </c>
       <c r="H105" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="O105" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12312,7 +12313,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>31</v>
@@ -12324,37 +12325,37 @@
         <v>45732</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12362,7 +12363,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>31</v>
@@ -12374,34 +12375,34 @@
         <v>45823</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>148</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12409,7 +12410,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>31</v>
@@ -12421,37 +12422,37 @@
         <v>45808</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12459,7 +12460,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>31</v>
@@ -12471,34 +12472,34 @@
         <v>45872</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>137</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12506,7 +12507,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>31</v>
@@ -12518,37 +12519,37 @@
         <v>45837</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12556,7 +12557,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>31</v>
@@ -12568,34 +12569,34 @@
         <v>45698</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12603,7 +12604,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>31</v>
@@ -12615,37 +12616,37 @@
         <v>45801</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12653,7 +12654,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>31</v>
@@ -12665,37 +12666,37 @@
         <v>45739</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -12703,7 +12704,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>31</v>
@@ -12715,37 +12716,37 @@
         <v>45718</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>137</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>148</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">

--- a/tools/2025 Racehorse Deaths (Active & Retired).xlsx
+++ b/tools/2025 Racehorse Deaths (Active & Retired).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Racehorse-Memorial\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB9619E-66A5-4587-BD1A-40ED09F50D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F98C2-7A0F-4594-B5C2-4571AB55BB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1131">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6483,6 +6483,307 @@
   </si>
   <si>
     <t>2012年新山纪念（G3）|2012年玫瑰锦标（G2）|2012年樱花赏（G1）|2012年优骏牝马（G1）|2012年秋华赏（G1）|2012·2013年日本杯（G1)|2014年迪拜司马经典赛（G1）|2014年有马纪念（G1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <r>
+      <t>3岁未胜利比赛中，在通过第三弯道后因</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**左第3掌骨开放性骨折**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（予后不良）中止比赛，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**殒命赛场**</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3岁以上1胜比赛中在第一弯道与前方马匹发生接触后跌倒后竞走中止，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**右桡骨开放性骨折**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（予后不良），</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**殒命赛场**</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3岁以上1胜比赛中在第一弯道接触到跌倒的10号马ウマピョイ后跌倒，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**左桡骨骨折**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（预后不良），</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**殒命赛场**</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>仲秋S（3胜级）比赛中在最后直线路段中止比赛，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**右第一指关节脱臼**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（预后不良），</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**殒命赛场**</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生涯首战3岁新马比赛中在第四弯道中止比赛，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**左第三腕骨粉碎性骨折**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（预后不良），</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**殒命赛场**</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因/事故|原因/脱臼|殒命赛场/平地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因/事故|原因/骨折|殒命赛场/平地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>アミドゥクール|Ami de Coeur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>カハンガハンガ|Kahanga Hanga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂宋火山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shamardal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitten's Roar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウマピョイ|Uma Pyoi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金伶人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanitsu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-3-7-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1662万2000日圆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年C2二|2024年疾风！短跑者（C3）|2024年C2三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>スティックバイミー|Stick By Me</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molto Felice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-1-1-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1349万日元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年2岁新马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>アロマデローサ|Aroma de Rosa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose Whisper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-3-0-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6740万5000日元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年2岁新马|2022年桔梗S（OP）|2025年西部体育日本赏（2胜级）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高情厚意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anodin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6886,9 +7187,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12590,7 +12891,7 @@
         <v>1008</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>1042</v>
+        <v>1105</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>842</v>
@@ -12649,7 +12950,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -12699,7 +13000,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -12737,7 +13038,7 @@
         <v>1011</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>1053</v>
+        <v>1104</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>948</v>
@@ -12749,60 +13050,284 @@
         <v>950</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="P115" s="11"/>
-    </row>
-    <row r="116" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-    </row>
-    <row r="117" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-    </row>
-    <row r="118" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-    </row>
-    <row r="120" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="9">
+        <v>44612</v>
+      </c>
+      <c r="E115" s="9">
+        <v>45830</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q115" s="11"/>
+    </row>
+    <row r="116" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D116" s="9">
+        <v>43866</v>
+      </c>
+      <c r="E116" s="9">
+        <v>45830</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D117" s="9">
+        <v>44305</v>
+      </c>
+      <c r="E117" s="9">
+        <v>45830</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="9">
+        <v>43889</v>
+      </c>
+      <c r="E118" s="9">
+        <v>45914</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D119" s="9">
+        <v>44614</v>
+      </c>
+      <c r="E119" s="9">
+        <v>45662</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
     </row>
-    <row r="121" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
     </row>
-    <row r="122" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
     </row>
-    <row r="123" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
     </row>
-    <row r="124" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
     </row>
-    <row r="125" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
     </row>
-    <row r="127" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
     </row>
-    <row r="128" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
     </row>

--- a/tools/2025 Racehorse Deaths (Active & Retired).xlsx
+++ b/tools/2025 Racehorse Deaths (Active & Retired).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Racehorse-Memorial\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F98C2-7A0F-4594-B5C2-4571AB55BB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B62B66-DDC5-41FA-B6B7-EB5E3F6B935B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1143">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6784,6 +6784,77 @@
   </si>
   <si>
     <t>Anodin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有目共赏|Bundle Award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳大利亚出生，澳大利亚和香港调教，参赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏姆斯奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犀利时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecosse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>West Quest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在晨操期间突然</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**心脏病发**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，钻过栏杆冲出跑道，倒卧中间行车路中</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因/心脏类疾病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-7-0-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,302万150港元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025年皇太后纪念杯（G3）|2025年香港马主协会锦标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025年在香港马主协会锦标跑出1分33秒4刷新该赛事记录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7187,9 +7258,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q117" sqref="Q117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11662,7 +11733,7 @@
         <v>992</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>1052</v>
+        <v>1138</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>771</v>
@@ -13296,8 +13367,57 @@
       </c>
     </row>
     <row r="120" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D120" s="9">
+        <v>44115</v>
+      </c>
+      <c r="E120" s="9">
+        <v>46017</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="121" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D121" s="9"/>
